--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Pla2g10</t>
+  </si>
+  <si>
+    <t>Pla2r1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pla2g10</t>
-  </si>
-  <si>
-    <t>Pla2r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3562090000000001</v>
+        <v>0.356209</v>
       </c>
       <c r="H2">
         <v>1.068627</v>
       </c>
       <c r="I2">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7804026666666667</v>
+        <v>0.3605286666666667</v>
       </c>
       <c r="N2">
-        <v>2.341208</v>
+        <v>1.081586</v>
       </c>
       <c r="O2">
-        <v>0.03799959776917219</v>
+        <v>0.03633591923834278</v>
       </c>
       <c r="P2">
-        <v>0.04867796083537516</v>
+        <v>0.04073107348517781</v>
       </c>
       <c r="Q2">
-        <v>0.2779864534906667</v>
+        <v>0.1284235558246667</v>
       </c>
       <c r="R2">
-        <v>2.501878081416001</v>
+        <v>1.155812002422</v>
       </c>
       <c r="S2">
-        <v>0.02542082022006738</v>
+        <v>0.03633591923834278</v>
       </c>
       <c r="T2">
-        <v>0.03256438919675728</v>
+        <v>0.04073107348517781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3562090000000001</v>
+        <v>0.356209</v>
       </c>
       <c r="H3">
         <v>1.068627</v>
       </c>
       <c r="I3">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>18.446994</v>
       </c>
       <c r="O3">
-        <v>0.2994088317015544</v>
+        <v>0.6197274041770084</v>
       </c>
       <c r="P3">
-        <v>0.3835464646722549</v>
+        <v>0.694688973594919</v>
       </c>
       <c r="Q3">
         <v>2.190328428582</v>
@@ -638,10 +638,10 @@
         <v>19.712955857238</v>
       </c>
       <c r="S3">
-        <v>0.2002973328617798</v>
+        <v>0.6197274041770084</v>
       </c>
       <c r="T3">
-        <v>0.2565833929006933</v>
+        <v>0.694688973594919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3562090000000001</v>
+        <v>0.356209</v>
       </c>
       <c r="H4">
         <v>1.068627</v>
       </c>
       <c r="I4">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.053957</v>
+        <v>0.016271</v>
       </c>
       <c r="N4">
-        <v>0.161871</v>
+        <v>0.048813</v>
       </c>
       <c r="O4">
-        <v>0.002627290223890262</v>
+        <v>0.001639874430494872</v>
       </c>
       <c r="P4">
-        <v>0.00336559169385335</v>
+        <v>0.001838231902069724</v>
       </c>
       <c r="Q4">
-        <v>0.019219969013</v>
+        <v>0.005795876639000001</v>
       </c>
       <c r="R4">
-        <v>0.172979721117</v>
+        <v>0.052162889751</v>
       </c>
       <c r="S4">
-        <v>0.001757594194895339</v>
+        <v>0.001639874430494872</v>
       </c>
       <c r="T4">
-        <v>0.002251500184378448</v>
+        <v>0.001838231902069724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3562090000000001</v>
+        <v>0.356209</v>
       </c>
       <c r="H5">
         <v>1.068627</v>
       </c>
       <c r="I5">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.515537</v>
+        <v>3.2119825</v>
       </c>
       <c r="N5">
-        <v>27.031074</v>
+        <v>6.423965</v>
       </c>
       <c r="O5">
-        <v>0.6581025303617161</v>
+        <v>0.3237199909622638</v>
       </c>
       <c r="P5">
-        <v>0.5620250577950049</v>
+        <v>0.2419178784499894</v>
       </c>
       <c r="Q5">
-        <v>4.814355919233</v>
+        <v>1.1441370743425</v>
       </c>
       <c r="R5">
-        <v>28.886135515398</v>
+        <v>6.864822446055</v>
       </c>
       <c r="S5">
-        <v>0.4402548209146758</v>
+        <v>0.3237199909622638</v>
       </c>
       <c r="T5">
-        <v>0.3759812943328173</v>
+        <v>0.2419178784499894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,356 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3562090000000001</v>
+        <v>0.356209</v>
       </c>
       <c r="H6">
         <v>1.068627</v>
       </c>
       <c r="I6">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.6689760342855641</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.038235</v>
+        <v>0.184321</v>
       </c>
       <c r="N6">
-        <v>0.114705</v>
+        <v>0.552963</v>
       </c>
       <c r="O6">
-        <v>0.001861749943667071</v>
+        <v>0.01857681119189019</v>
       </c>
       <c r="P6">
-        <v>0.002384925003511738</v>
+        <v>0.02082384256784423</v>
       </c>
       <c r="Q6">
-        <v>0.013619651115</v>
+        <v>0.06565679908899999</v>
       </c>
       <c r="R6">
-        <v>0.122576860035</v>
+        <v>0.5909111918009999</v>
       </c>
       <c r="S6">
-        <v>0.001245466094145769</v>
+        <v>0.01857681119189019</v>
       </c>
       <c r="T6">
-        <v>0.001595457670917767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.17626</v>
-      </c>
-      <c r="H7">
-        <v>0.52878</v>
-      </c>
-      <c r="I7">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="J7">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.7804026666666667</v>
-      </c>
-      <c r="N7">
-        <v>2.341208</v>
-      </c>
-      <c r="O7">
-        <v>0.03799959776917219</v>
-      </c>
-      <c r="P7">
-        <v>0.04867796083537516</v>
-      </c>
-      <c r="Q7">
-        <v>0.1375537740266667</v>
-      </c>
-      <c r="R7">
-        <v>1.23798396624</v>
-      </c>
-      <c r="S7">
-        <v>0.01257877754910481</v>
-      </c>
-      <c r="T7">
-        <v>0.01611357163861788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.17626</v>
-      </c>
-      <c r="H8">
-        <v>0.52878</v>
-      </c>
-      <c r="I8">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="J8">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.148998</v>
-      </c>
-      <c r="N8">
-        <v>18.446994</v>
-      </c>
-      <c r="O8">
-        <v>0.2994088317015544</v>
-      </c>
-      <c r="P8">
-        <v>0.3835464646722549</v>
-      </c>
-      <c r="Q8">
-        <v>1.08382238748</v>
-      </c>
-      <c r="R8">
-        <v>9.754401487320001</v>
-      </c>
-      <c r="S8">
-        <v>0.09911149883977466</v>
-      </c>
-      <c r="T8">
-        <v>0.1269630717715616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.17626</v>
-      </c>
-      <c r="H9">
-        <v>0.52878</v>
-      </c>
-      <c r="I9">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="J9">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.053957</v>
-      </c>
-      <c r="N9">
-        <v>0.161871</v>
-      </c>
-      <c r="O9">
-        <v>0.002627290223890262</v>
-      </c>
-      <c r="P9">
-        <v>0.00336559169385335</v>
-      </c>
-      <c r="Q9">
-        <v>0.00951046082</v>
-      </c>
-      <c r="R9">
-        <v>0.08559414738</v>
-      </c>
-      <c r="S9">
-        <v>0.0008696960289949228</v>
-      </c>
-      <c r="T9">
-        <v>0.001114091509474901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.17626</v>
-      </c>
-      <c r="H10">
-        <v>0.52878</v>
-      </c>
-      <c r="I10">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="J10">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>13.515537</v>
-      </c>
-      <c r="N10">
-        <v>27.031074</v>
-      </c>
-      <c r="O10">
-        <v>0.6581025303617161</v>
-      </c>
-      <c r="P10">
-        <v>0.5620250577950049</v>
-      </c>
-      <c r="Q10">
-        <v>2.38224855162</v>
-      </c>
-      <c r="R10">
-        <v>14.29349130972</v>
-      </c>
-      <c r="S10">
-        <v>0.2178477094470402</v>
-      </c>
-      <c r="T10">
-        <v>0.1860437634621876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.17626</v>
-      </c>
-      <c r="H11">
-        <v>0.52878</v>
-      </c>
-      <c r="I11">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="J11">
-        <v>0.3310239657144359</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.038235</v>
-      </c>
-      <c r="N11">
-        <v>0.114705</v>
-      </c>
-      <c r="O11">
-        <v>0.001861749943667071</v>
-      </c>
-      <c r="P11">
-        <v>0.002384925003511738</v>
-      </c>
-      <c r="Q11">
-        <v>0.0067393011</v>
-      </c>
-      <c r="R11">
-        <v>0.06065370990000001</v>
-      </c>
-      <c r="S11">
-        <v>0.0006162838495213016</v>
-      </c>
-      <c r="T11">
-        <v>0.0007894673325939705</v>
+        <v>0.02082384256784423</v>
       </c>
     </row>
   </sheetData>
